--- a/artfynd/A 32178-2022.xlsx
+++ b/artfynd/A 32178-2022.xlsx
@@ -2142,14 +2142,14 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>80414061</v>
+        <v>68946490</v>
       </c>
       <c r="B14" t="n">
         <v>104626</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2175,14 +2175,24 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Skäftekärr, Öl</t>
+          <t>Skäftekärr NV-ut, Öl</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -2192,7 +2202,7 @@
         <v>6347120.333312213</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2216,22 +2226,27 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-10-12</t>
+          <t>2017-11-11</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-10-12</t>
+          <t>2017-11-11</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Tre ex, upp till 4 meter höga. Rikligt med bär.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2240,19 +2255,23 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Robin Isaksson</t>
+          <t>Joakim Ekman</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Robin Isaksson</t>
+          <t>Joakim Ekman, Gabriel Ekman, Björn Owe-Larsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
